--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
   <si>
     <t>Profile</t>
   </si>
@@ -104,6 +104,18 @@
     <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
+    <t>onc-monk-skintone-observation</t>
+  </si>
+  <si>
+    <t>Monk Skin Tone Observation</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#onc-mst-assessment</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
     <t>onc-nursing-assessment</t>
   </si>
   <si>
@@ -120,9 +132,6 @@
   </si>
   <si>
     <t>LOINC#66472-2</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
   </si>
 </sst>
 </file>
@@ -256,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -591,16 +600,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -614,10 +623,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -626,16 +635,16 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -644,6 +653,41 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
   <si>
     <t>Profile</t>
   </si>
@@ -104,34 +104,25 @@
     <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
-    <t>onc-monk-skintone-observation</t>
-  </si>
-  <si>
-    <t>Monk Skin Tone Observation</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#onc-mst-assessment</t>
+    <t>onc-nursing-assessment</t>
+  </si>
+  <si>
+    <t>Open Nursing Core Assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>onc-skintone-observation</t>
+  </si>
+  <si>
+    <t>Skin Tone Observation</t>
+  </si>
+  <si>
+    <t>LOINC#66472-2</t>
   </si>
   <si>
     <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>onc-nursing-assessment</t>
-  </si>
-  <si>
-    <t>Open Nursing Core Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
-  </si>
-  <si>
-    <t>onc-skintone-observation</t>
-  </si>
-  <si>
-    <t>Skin Tone Observation</t>
-  </si>
-  <si>
-    <t>LOINC#66472-2</t>
   </si>
 </sst>
 </file>
@@ -265,7 +256,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -600,16 +591,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="2">
         <v>32</v>
-      </c>
-      <c r="F10" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -623,10 +614,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>34</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>35</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -635,16 +626,16 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -653,41 +644,6 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H12" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
   <si>
     <t>Profile</t>
   </si>
@@ -104,6 +104,18 @@
     <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
+    <t>onc-monk-skintone-observation</t>
+  </si>
+  <si>
+    <t>Monk Skin Tone Observation</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mst-score</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
     <t>onc-nursing-assessment</t>
   </si>
   <si>
@@ -120,9 +132,6 @@
   </si>
   <si>
     <t>LOINC#66472-2</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
   </si>
 </sst>
 </file>
@@ -256,7 +265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -591,16 +600,16 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -614,10 +623,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>13</v>
@@ -626,16 +635,16 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -644,6 +653,41 @@
         <v>14</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -59,7 +59,7 @@
     <t/>
   </si>
   <si>
-    <t>LOINC#9017-7</t>
+    <t>LOINC#38227-0</t>
   </si>
   <si>
     <t>dateTime, Period, Timing, instant</t>
@@ -71,25 +71,25 @@
     <t>optional</t>
   </si>
   <si>
-    <t>LOINC#74012-8</t>
+    <t>LOINC#38222-1</t>
   </si>
   <si>
     <t>Quantity</t>
   </si>
   <si>
-    <t>LOINC#74013-6</t>
-  </si>
-  <si>
-    <t>LOINC#74014-4</t>
-  </si>
-  <si>
-    <t>LOINC#74015-1</t>
-  </si>
-  <si>
-    <t>LOINC#74016-9</t>
-  </si>
-  <si>
-    <t>LOINC#74017-7</t>
+    <t>LOINC#38229-6</t>
+  </si>
+  <si>
+    <t>LOINC#38223-9</t>
+  </si>
+  <si>
+    <t>LOINC#38224-7</t>
+  </si>
+  <si>
+    <t>LOINC#38225-4</t>
+  </si>
+  <si>
+    <t>LOINC#38226-2</t>
   </si>
   <si>
     <t>onc-goal-evaluation</t>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
   <si>
     <t>Profile</t>
   </si>
@@ -116,6 +116,15 @@
     <t>CodeableConceptĵ</t>
   </si>
   <si>
+    <t>onc-news2-score</t>
+  </si>
+  <si>
+    <t>NEWS2 Score</t>
+  </si>
+  <si>
+    <t>LOINC#88330-6</t>
+  </si>
+  <si>
     <t>onc-nursing-assessment</t>
   </si>
   <si>
@@ -125,6 +134,18 @@
     <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
+    <t>onc-pain-assessment</t>
+  </si>
+  <si>
+    <t>Pain Assessment (NRS 0-10)</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/pain-assessment-code-vs (required)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>onc-skintone-observation</t>
   </si>
   <si>
@@ -132,6 +153,24 @@
   </si>
   <si>
     <t>LOINC#66472-2</t>
+  </si>
+  <si>
+    <t>onc-wound-assessment</t>
+  </si>
+  <si>
+    <t>Wound Assessment</t>
+  </si>
+  <si>
+    <t>SNOMED CT#399912005</t>
+  </si>
+  <si>
+    <t>SNOMED CT#410668003</t>
+  </si>
+  <si>
+    <t>SNOMED CT#410669006</t>
+  </si>
+  <si>
+    <t>SNOMED CT#410670007</t>
   </si>
 </sst>
 </file>
@@ -265,7 +304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -635,16 +674,16 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -670,24 +709,234 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="2">
         <v>39</v>
-      </c>
-      <c r="F12" t="s" s="2">
-        <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H12" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G13" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H13" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I13" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K13" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="F14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s" s="2">
         <v>33</v>
       </c>
-      <c r="I12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K12" t="s" s="2">
+      <c r="I14" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K14" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K15" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I16" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="F17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I17" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J17" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="79">
   <si>
     <t>Profile</t>
   </si>
@@ -47,36 +47,75 @@
     <t>Method</t>
   </si>
   <si>
+    <t>onc-acvpu</t>
+  </si>
+  <si>
+    <t>ACVPU Consciousness Level</t>
+  </si>
+  <si>
+    <t>null#nursing</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SNOMED CT#1104441000000107</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>onc-blood-pressure</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>onc-body-temperature</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>LOINC#8310-5</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
     <t>onc-braden-scale-assessment</t>
   </si>
   <si>
     <t>Braden Scale Assessment</t>
   </si>
   <si>
-    <t>null#nursing</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>LOINC#38227-0</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>LOINC#38222-1</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>LOINC#38229-6</t>
   </si>
   <si>
@@ -101,7 +140,22 @@
     <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset (required)</t>
   </si>
   <si>
-    <t>Quantityĵ, CodeableConceptĵ</t>
+    <t>onc-heart-rate</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>LOINC#8867-4</t>
+  </si>
+  <si>
+    <t>onc-inspired-oxygen</t>
+  </si>
+  <si>
+    <t>Inspired Oxygen</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
   </si>
   <si>
     <t>onc-monk-skintone-observation</t>
@@ -113,16 +167,22 @@
     <t>ONC Observation Codes#mst-score</t>
   </si>
   <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
     <t>onc-news2-score</t>
   </si>
   <si>
     <t>NEWS2 Score</t>
   </si>
   <si>
-    <t>LOINC#88330-6</t>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/news2-code-vs (required)</t>
+  </si>
+  <si>
+    <t>onc-news2-subscore</t>
+  </si>
+  <si>
+    <t>NEWS2 Sub-Score</t>
+  </si>
+  <si>
+    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/news2-subscore-code-vs (required)</t>
   </si>
   <si>
     <t>onc-nursing-assessment</t>
@@ -134,6 +194,15 @@
     <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
+    <t>onc-oxygen-saturation</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>LOINC#59408-5</t>
+  </si>
+  <si>
     <t>onc-pain-assessment</t>
   </si>
   <si>
@@ -144,6 +213,15 @@
   </si>
   <si>
     <t>dateTime</t>
+  </si>
+  <si>
+    <t>onc-respiration-rate</t>
+  </si>
+  <si>
+    <t>Respiration Rate</t>
+  </si>
+  <si>
+    <t>LOINC#9279-1</t>
   </si>
   <si>
     <t>onc-skintone-observation</t>
@@ -304,7 +382,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -382,28 +460,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -420,7 +498,7 @@
         <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s" s="2">
         <v>14</v>
@@ -429,7 +507,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
@@ -438,7 +516,7 @@
         <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -455,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -464,7 +542,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -473,7 +551,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -487,28 +565,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -522,28 +600,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -560,7 +638,7 @@
         <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s" s="2">
         <v>14</v>
@@ -569,7 +647,7 @@
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
@@ -578,7 +656,7 @@
         <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -592,28 +670,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -627,28 +705,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>31</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -662,13 +740,13 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>14</v>
@@ -680,10 +758,10 @@
         <v>14</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -697,28 +775,28 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E12" t="s" s="2">
         <v>37</v>
       </c>
-      <c r="B12" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D12" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F12" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -732,28 +810,28 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -767,10 +845,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>13</v>
@@ -779,16 +857,16 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>46</v>
+        <v>14</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -802,10 +880,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="2">
         <v>13</v>
@@ -814,7 +892,7 @@
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
@@ -823,7 +901,7 @@
         <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -837,28 +915,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -872,28 +950,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -907,28 +985,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -937,6 +1015,356 @@
         <v>14</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="F21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J21" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F22" t="s" s="2">
+        <v>65</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J22" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K22" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="F23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K23" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="F24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J24" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K24" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J25" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K25" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="F26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I26" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J26" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K26" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="F27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I27" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J27" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K27" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
   <si>
     <t>Profile</t>
   </si>
@@ -129,6 +129,24 @@
   </si>
   <si>
     <t>LOINC#38226-2</t>
+  </si>
+  <si>
+    <t>onc-glasgow-coma-scale</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>LOINC#9269-2</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
   </si>
   <si>
     <t>onc-goal-evaluation</t>
@@ -382,7 +400,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -857,16 +875,16 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -880,28 +898,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>44</v>
-      </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -915,28 +933,28 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -950,28 +968,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -985,10 +1003,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s" s="2">
         <v>13</v>
@@ -1000,13 +1018,13 @@
         <v>14</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1020,10 +1038,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1032,10 +1050,10 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>16</v>
@@ -1055,10 +1073,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1067,10 +1085,10 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>16</v>
@@ -1090,10 +1108,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C21" t="s" s="2">
         <v>13</v>
@@ -1102,7 +1120,7 @@
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
@@ -1111,7 +1129,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1125,10 +1143,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>13</v>
@@ -1140,10 +1158,10 @@
         <v>14</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>29</v>
@@ -1160,10 +1178,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>13</v>
@@ -1172,10 +1190,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>16</v>
@@ -1195,10 +1213,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>13</v>
@@ -1207,16 +1225,16 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1230,10 +1248,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1242,7 +1260,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1251,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1265,28 +1283,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1300,28 +1318,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>73</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1335,13 +1353,13 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
@@ -1353,18 +1371,158 @@
         <v>14</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I28" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J28" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K28" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="F29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H29" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K29" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E30" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="F30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="I28" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K28" t="s" s="2">
+      <c r="I30" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="F31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I31" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K31" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="F32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I32" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="88">
   <si>
     <t>Profile</t>
   </si>
@@ -249,6 +249,15 @@
   </si>
   <si>
     <t>LOINC#66472-2</t>
+  </si>
+  <si>
+    <t>onc-waterlow-score</t>
+  </si>
+  <si>
+    <t>Waterlow Score</t>
+  </si>
+  <si>
+    <t>SNOMED CT#443846001</t>
   </si>
   <si>
     <t>onc-wound-assessment</t>
@@ -400,7 +409,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K32"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1409,7 +1418,7 @@
         <v>16</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1423,28 +1432,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1461,7 +1470,7 @@
         <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>14</v>
@@ -1470,7 +1479,7 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
@@ -1496,7 +1505,7 @@
         <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>14</v>
@@ -1505,7 +1514,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1523,6 +1532,41 @@
         <v>14</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="F33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="94">
   <si>
     <t>Profile</t>
   </si>
@@ -183,6 +183,24 @@
   </si>
   <si>
     <t>ONC Observation Codes#mst-score</t>
+  </si>
+  <si>
+    <t>onc-must-score</t>
+  </si>
+  <si>
+    <t>MUST Score (Malnutrition Universal Screening Tool)</t>
+  </si>
+  <si>
+    <t>SNOMED CT#870431003</t>
+  </si>
+  <si>
+    <t>SNOMED CT#846931000000101</t>
+  </si>
+  <si>
+    <t>SNOMED CT#846941000000105</t>
+  </si>
+  <si>
+    <t>SNOMED CT#846951000000107</t>
   </si>
   <si>
     <t>onc-news2-score</t>
@@ -409,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1164,10 +1182,10 @@
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>16</v>
@@ -1187,28 +1205,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E23" t="s" s="2">
         <v>60</v>
       </c>
-      <c r="B23" t="s" s="2">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D23" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="F23" t="s" s="2">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1222,28 +1240,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1257,28 +1275,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1292,10 +1310,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>13</v>
@@ -1307,10 +1325,10 @@
         <v>14</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>29</v>
@@ -1327,10 +1345,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>13</v>
@@ -1339,10 +1357,10 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>75</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>16</v>
@@ -1362,10 +1380,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s" s="2">
         <v>13</v>
@@ -1374,16 +1392,16 @@
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1397,10 +1415,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1409,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1432,10 +1450,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1444,16 +1462,16 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>16</v>
+        <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1467,28 +1485,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>14</v>
+        <v>79</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1502,28 +1520,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>14</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>83</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1537,13 +1555,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
@@ -1555,18 +1573,158 @@
         <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K33" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C34" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="F34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E35" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H35" t="s" s="2">
         <v>24</v>
       </c>
-      <c r="I33" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="K33" t="s" s="2">
+      <c r="I35" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K37" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="103">
   <si>
     <t>Profile</t>
   </si>
@@ -71,6 +71,18 @@
     <t>optional</t>
   </si>
   <si>
+    <t>onc-barthel-index</t>
+  </si>
+  <si>
+    <t>Barthel Index</t>
+  </si>
+  <si>
+    <t>LOINC#83254-5</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
     <t>onc-blood-pressure</t>
   </si>
   <si>
@@ -101,9 +113,6 @@
     <t>LOINC#8310-5</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
     <t>onc-braden-scale-assessment</t>
   </si>
   <si>
@@ -185,6 +194,15 @@
     <t>ONC Observation Codes#mst-score</t>
   </si>
   <si>
+    <t>onc-morse-fall-scale</t>
+  </si>
+  <si>
+    <t>Morse Fall Scale</t>
+  </si>
+  <si>
+    <t>LOINC#73830-2</t>
+  </si>
+  <si>
     <t>onc-must-score</t>
   </si>
   <si>
@@ -249,6 +267,15 @@
   </si>
   <si>
     <t>dateTime</t>
+  </si>
+  <si>
+    <t>onc-qsofa</t>
+  </si>
+  <si>
+    <t>qSOFA (Quick SOFA)</t>
+  </si>
+  <si>
+    <t>LOINC#96790-1</t>
   </si>
   <si>
     <t>onc-respiration-rate</t>
@@ -427,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -540,28 +567,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -578,7 +605,7 @@
         <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s" s="2">
         <v>14</v>
@@ -587,7 +614,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
@@ -596,7 +623,7 @@
         <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -610,28 +637,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s" s="2">
         <v>28</v>
-      </c>
-      <c r="F6" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H6" t="s" s="2">
-        <v>29</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -666,7 +693,7 @@
         <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -680,28 +707,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -718,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s" s="2">
         <v>14</v>
@@ -727,7 +754,7 @@
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
@@ -736,7 +763,7 @@
         <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -753,7 +780,7 @@
         <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C10" t="s" s="2">
         <v>14</v>
@@ -762,7 +789,7 @@
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
@@ -771,7 +798,7 @@
         <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -788,7 +815,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -797,7 +824,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -806,7 +833,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -823,7 +850,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -832,7 +859,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -841,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -858,7 +885,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -867,7 +894,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -876,7 +903,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -890,13 +917,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
@@ -908,10 +935,10 @@
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -925,28 +952,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -963,7 +990,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -972,7 +999,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -981,7 +1008,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -998,7 +1025,7 @@
         <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>14</v>
@@ -1007,7 +1034,7 @@
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
@@ -1016,7 +1043,7 @@
         <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1030,28 +1057,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1077,16 +1104,16 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="F19" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G19" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1156,7 +1183,7 @@
         <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1191,7 +1218,7 @@
         <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1205,28 +1232,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1240,28 +1267,28 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1278,7 +1305,7 @@
         <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>14</v>
@@ -1287,7 +1314,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1296,7 +1323,7 @@
         <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1310,28 +1337,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>64</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1345,28 +1372,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1427,16 +1454,16 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="F29" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G29" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1468,10 +1495,10 @@
         <v>77</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1485,20 +1512,20 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="B31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="B31" t="s" s="2">
+      <c r="C31" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="C31" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D31" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>81</v>
-      </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
       </c>
@@ -1506,7 +1533,7 @@
         <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1520,28 +1547,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="B32" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="B32" t="s" s="2">
+      <c r="C32" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E32" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="2">
         <v>83</v>
       </c>
-      <c r="C32" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E32" t="s" s="2">
+      <c r="G32" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="F32" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s" s="2">
-        <v>16</v>
-      </c>
       <c r="H32" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1576,7 +1603,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -1611,7 +1638,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -1625,28 +1652,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1660,28 +1687,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1695,28 +1722,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1725,6 +1752,111 @@
         <v>14</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="F38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E39" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="F39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="106">
   <si>
     <t>Profile</t>
   </si>
@@ -183,6 +183,15 @@
   </si>
   <si>
     <t>LOINC#3151-8</t>
+  </si>
+  <si>
+    <t>onc-mmse</t>
+  </si>
+  <si>
+    <t>Mini Mental State Examination (MMSE)</t>
+  </si>
+  <si>
+    <t>LOINC#72106-8</t>
   </si>
   <si>
     <t>onc-monk-skintone-observation</t>
@@ -454,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1218,7 +1227,7 @@
         <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1253,7 +1262,7 @@
         <v>16</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1302,28 +1311,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1340,7 +1349,7 @@
         <v>14</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s" s="2">
         <v>14</v>
@@ -1349,7 +1358,7 @@
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1375,7 +1384,7 @@
         <v>14</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s" s="2">
         <v>14</v>
@@ -1384,7 +1393,7 @@
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1407,28 +1416,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1498,7 +1507,7 @@
         <v>16</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1524,16 +1533,16 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="F31" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G31" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1559,13 +1568,13 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>84</v>
+        <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>22</v>
@@ -1582,25 +1591,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="B33" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="B33" t="s" s="2">
+      <c r="C33" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E33" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="C33" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E33" t="s" s="2">
+      <c r="G33" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="F33" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s" s="2">
-        <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>22</v>
@@ -1673,7 +1682,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1708,7 +1717,7 @@
         <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1743,7 +1752,7 @@
         <v>16</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1757,28 +1766,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1795,7 +1804,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -1804,7 +1813,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -1830,7 +1839,7 @@
         <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C40" t="s" s="2">
         <v>14</v>
@@ -1839,7 +1848,7 @@
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>14</v>
@@ -1857,6 +1866,41 @@
         <v>14</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K41" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -53,7 +53,7 @@
     <t>ACVPU Consciousness Level</t>
   </si>
   <si>
-    <t>null#nursing</t>
+    <t>null#survey</t>
   </si>
   <si>
     <t/>
@@ -77,7 +77,7 @@
     <t>Barthel Index</t>
   </si>
   <si>
-    <t>LOINC#83254-5</t>
+    <t>ONC Observation Codes#barthel-score</t>
   </si>
   <si>
     <t>Quantityĵ</t>
@@ -119,25 +119,25 @@
     <t>Braden Scale Assessment</t>
   </si>
   <si>
-    <t>LOINC#38227-0</t>
-  </si>
-  <si>
-    <t>LOINC#38222-1</t>
-  </si>
-  <si>
-    <t>LOINC#38229-6</t>
-  </si>
-  <si>
-    <t>LOINC#38223-9</t>
-  </si>
-  <si>
-    <t>LOINC#38224-7</t>
-  </si>
-  <si>
-    <t>LOINC#38225-4</t>
-  </si>
-  <si>
-    <t>LOINC#38226-2</t>
+    <t>ONC Observation Codes#braden-total-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-sensory</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-moisture</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-activity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-mobility</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-nutrition</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-friction</t>
   </si>
   <si>
     <t>onc-glasgow-coma-scale</t>
@@ -218,16 +218,16 @@
     <t>MUST Score (Malnutrition Universal Screening Tool)</t>
   </si>
   <si>
-    <t>SNOMED CT#870431003</t>
-  </si>
-  <si>
-    <t>SNOMED CT#846931000000101</t>
-  </si>
-  <si>
-    <t>SNOMED CT#846941000000105</t>
-  </si>
-  <si>
-    <t>SNOMED CT#846951000000107</t>
+    <t>ONC Observation Codes#must-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-bmi-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-weight-loss-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-acute-disease-score</t>
   </si>
   <si>
     <t>onc-news2-score</t>
@@ -236,7 +236,7 @@
     <t>NEWS2 Score</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/news2-code-vs (required)</t>
+    <t>ONC Observation Codes#news2-score</t>
   </si>
   <si>
     <t>onc-news2-subscore</t>
@@ -245,7 +245,7 @@
     <t>NEWS2 Sub-Score</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/news2-subscore-code-vs (required)</t>
+    <t>ONC Observation Codes#news2-subscore</t>
   </si>
   <si>
     <t>onc-nursing-assessment</t>
@@ -302,7 +302,7 @@
     <t>Skin Tone Observation</t>
   </si>
   <si>
-    <t>LOINC#66472-2</t>
+    <t>LOINC#66555-4</t>
   </si>
   <si>
     <t>onc-waterlow-score</t>
@@ -311,7 +311,7 @@
     <t>Waterlow Score</t>
   </si>
   <si>
-    <t>SNOMED CT#443846001</t>
+    <t>ONC Observation Codes#waterlow-score</t>
   </si>
   <si>
     <t>onc-wound-assessment</t>
@@ -326,10 +326,10 @@
     <t>SNOMED CT#410668003</t>
   </si>
   <si>
-    <t>SNOMED CT#410669006</t>
-  </si>
-  <si>
-    <t>SNOMED CT#410670007</t>
+    <t>SNOMED CT#401239006</t>
+  </si>
+  <si>
+    <t>SNOMED CT#425094009</t>
   </si>
 </sst>
 </file>
@@ -1463,10 +1463,10 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>74</v>
+        <v>14</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>16</v>
@@ -1498,10 +1498,10 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>14</v>
+        <v>77</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>16</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="130">
   <si>
     <t>Profile</t>
   </si>
@@ -53,7 +53,7 @@
     <t>ACVPU Consciousness Level</t>
   </si>
   <si>
-    <t>null#survey</t>
+    <t>Observation Category Codes#survey</t>
   </si>
   <si>
     <t/>
@@ -330,6 +330,78 @@
   </si>
   <si>
     <t>SNOMED CT#425094009</t>
+  </si>
+  <si>
+    <t>onc-4at-delirium</t>
+  </si>
+  <si>
+    <t>4AT Delirium Assessment</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-alertness</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-amt4</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-attention</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-acute-change</t>
+  </si>
+  <si>
+    <t>onc-clinical-frailty-scale</t>
+  </si>
+  <si>
+    <t>Clinical Frailty Scale (CFS)</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#cfs-score</t>
+  </si>
+  <si>
+    <t>onc-patient-story</t>
+  </si>
+  <si>
+    <t>Patient Story</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#patient-story</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>onc-relational-observation</t>
+  </si>
+  <si>
+    <t>Relational Engagement Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#relational-engagement</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>onc-what-matters</t>
+  </si>
+  <si>
+    <t>What Matters to Me</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#what-matters</t>
   </si>
 </sst>
 </file>
@@ -463,7 +535,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1904,6 +1976,321 @@
         <v>14</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E44" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="F46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="I46" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="D47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="F47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C48" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E48" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="F48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="D50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="234">
   <si>
     <t>Profile</t>
   </si>
@@ -83,6 +83,15 @@
     <t>Quantityĵ</t>
   </si>
   <si>
+    <t>onc-bladder-assessment</t>
+  </si>
+  <si>
+    <t>Bladder Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bladder-assessment</t>
+  </si>
+  <si>
     <t>onc-blood-pressure</t>
   </si>
   <si>
@@ -92,97 +101,169 @@
     <t>LOINC#85354-9</t>
   </si>
   <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>onc-body-temperature</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>LOINC#8310-5</t>
+  </si>
+  <si>
+    <t>onc-bowel-assessment</t>
+  </si>
+  <si>
+    <t>Bowel Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bowel-assessment</t>
+  </si>
+  <si>
+    <t>onc-braden-scale-assessment</t>
+  </si>
+  <si>
+    <t>Braden Scale Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-total-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-sensory</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-moisture</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-activity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-mobility</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-nutrition</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-friction</t>
+  </si>
+  <si>
+    <t>onc-catheter-care</t>
+  </si>
+  <si>
+    <t>Catheter Care</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#catheter-care</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>onc-continence-assessment</t>
+  </si>
+  <si>
+    <t>Continence Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#continence-assessment</t>
+  </si>
+  <si>
+    <t>onc-dietary-requirements</t>
+  </si>
+  <si>
+    <t>Dietary Requirements</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#dietary-requirements</t>
+  </si>
+  <si>
+    <t>onc-glasgow-coma-scale</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>LOINC#9269-2</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
+  </si>
+  <si>
+    <t>onc-goal-evaluation</t>
+  </si>
+  <si>
+    <t>ONC Goal Evaluation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#390906007</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>onc-heart-rate</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>LOINC#8867-4</t>
+  </si>
+  <si>
+    <t>onc-hygiene-assessment</t>
+  </si>
+  <si>
+    <t>Personal Hygiene Needs Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#hygiene-needs</t>
+  </si>
+  <si>
+    <t>onc-inspired-oxygen</t>
+  </si>
+  <si>
+    <t>Inspired Oxygen</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
+  </si>
+  <si>
     <t>Quantityĵ, CodeableConceptĵ</t>
   </si>
   <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>onc-body-temperature</t>
-  </si>
-  <si>
-    <t>Body Temperature</t>
-  </si>
-  <si>
-    <t>LOINC#8310-5</t>
-  </si>
-  <si>
-    <t>onc-braden-scale-assessment</t>
-  </si>
-  <si>
-    <t>Braden Scale Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-total-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-sensory</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-moisture</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-activity</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-mobility</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-nutrition</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-friction</t>
-  </si>
-  <si>
-    <t>onc-glasgow-coma-scale</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale</t>
-  </si>
-  <si>
-    <t>LOINC#9269-2</t>
-  </si>
-  <si>
-    <t>LOINC#9267-6</t>
-  </si>
-  <si>
-    <t>LOINC#9270-0</t>
-  </si>
-  <si>
-    <t>LOINC#9268-4</t>
-  </si>
-  <si>
-    <t>onc-goal-evaluation</t>
-  </si>
-  <si>
-    <t>Goal Evaluation</t>
-  </si>
-  <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/goal-evaluation-valueset (required)</t>
-  </si>
-  <si>
-    <t>onc-heart-rate</t>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-  </si>
-  <si>
-    <t>LOINC#8867-4</t>
-  </si>
-  <si>
-    <t>onc-inspired-oxygen</t>
-  </si>
-  <si>
-    <t>Inspired Oxygen</t>
-  </si>
-  <si>
-    <t>LOINC#3151-8</t>
+    <t>onc-medication-ability</t>
+  </si>
+  <si>
+    <t>Medication Management Ability</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#medication-ability</t>
+  </si>
+  <si>
+    <t>onc-medication-self-admin</t>
+  </si>
+  <si>
+    <t>Medication Self-Administration Observation</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#medication-self-admin</t>
   </si>
   <si>
     <t>onc-mmse</t>
@@ -194,6 +275,15 @@
     <t>LOINC#72106-8</t>
   </si>
   <si>
+    <t>onc-mobility-assessment</t>
+  </si>
+  <si>
+    <t>Mobility Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mobility</t>
+  </si>
+  <si>
     <t>onc-monk-skintone-observation</t>
   </si>
   <si>
@@ -257,6 +347,24 @@
     <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
   </si>
   <si>
+    <t>onc-oral-care-assessment</t>
+  </si>
+  <si>
+    <t>Oral Care Needs Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-care</t>
+  </si>
+  <si>
+    <t>onc-oral-intake-assessment</t>
+  </si>
+  <si>
+    <t>Oral Intake Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-intake</t>
+  </si>
+  <si>
     <t>onc-oxygen-saturation</t>
   </si>
   <si>
@@ -305,6 +413,15 @@
     <t>LOINC#66555-4</t>
   </si>
   <si>
+    <t>onc-swallowing-assessment</t>
+  </si>
+  <si>
+    <t>Swallowing Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#swallowing</t>
+  </si>
+  <si>
     <t>onc-waterlow-score</t>
   </si>
   <si>
@@ -347,9 +464,6 @@
     <t>ONC Observation Codes#4at-alertness</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
     <t>ONC Observation Codes#4at-amt4</t>
   </si>
   <si>
@@ -359,6 +473,75 @@
     <t>ONC Observation Codes#4at-acute-change</t>
   </si>
   <si>
+    <t>onc-abbey-pain-scale</t>
+  </si>
+  <si>
+    <t>Abbey Pain Scale</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-vocalization</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-facial-expression</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-body-language</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-behavioral-change</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-psychological-change</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-physical-changes</t>
+  </si>
+  <si>
+    <t>onc-abc-chart</t>
+  </si>
+  <si>
+    <t>PBS ABC Chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-antecedent</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-behaviour</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-consequence</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-duration</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-intensity</t>
+  </si>
+  <si>
+    <t>onc-bristol-stool-chart</t>
+  </si>
+  <si>
+    <t>Bristol Stool Chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bristol-score</t>
+  </si>
+  <si>
     <t>onc-clinical-frailty-scale</t>
   </si>
   <si>
@@ -368,6 +551,60 @@
     <t>ONC Observation Codes#cfs-score</t>
   </si>
   <si>
+    <t>onc-fluid-balance</t>
+  </si>
+  <si>
+    <t>Fluid Balance</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-balance</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-input-total</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-output-total</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urine-output</t>
+  </si>
+  <si>
+    <t>onc-mental-capacity</t>
+  </si>
+  <si>
+    <t>Mental Capacity Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mca-assessment</t>
+  </si>
+  <si>
+    <t>onc-oral-health</t>
+  </si>
+  <si>
+    <t>Oral Health Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-health-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-lips</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-tongue</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-gums</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-teeth</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-saliva</t>
+  </si>
+  <si>
     <t>onc-patient-story</t>
   </si>
   <si>
@@ -380,7 +617,13 @@
     <t>ONC Observation Codes#patient-story</t>
   </si>
   <si>
-    <t>stringĵ</t>
+    <t>onc-reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>Reasonable Adjustment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#reasonable-adjustment</t>
   </si>
   <si>
     <t>onc-relational-observation</t>
@@ -392,7 +635,76 @@
     <t>ONC Observation Codes#relational-engagement</t>
   </si>
   <si>
-    <t>integerĵ</t>
+    <t>onc-seizure-record</t>
+  </si>
+  <si>
+    <t>Seizure Record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-type</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-duration</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-recovery</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-trigger</t>
+  </si>
+  <si>
+    <t>onc-sleep-pattern</t>
+  </si>
+  <si>
+    <t>Sleep Pattern</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-quality</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-hours</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-disturbances</t>
+  </si>
+  <si>
+    <t>onc-urinalysis</t>
+  </si>
+  <si>
+    <t>Urinalysis</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urinalysis-panel</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-leukocytes</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-nitrites</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-blood</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-protein</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-glucose</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ketones</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ph</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-sg</t>
   </si>
   <si>
     <t>onc-what-matters</t>
@@ -535,7 +847,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K50"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -669,7 +981,7 @@
         <v>16</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -683,28 +995,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -721,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>14</v>
@@ -730,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -739,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -753,13 +1065,13 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s" s="2">
         <v>14</v>
@@ -771,10 +1083,10 @@
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -823,28 +1135,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -858,28 +1170,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -896,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -905,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -914,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -931,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -940,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -949,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -966,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -975,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -984,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -1001,7 +1313,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s" s="2">
         <v>14</v>
@@ -1010,7 +1322,7 @@
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
@@ -1019,7 +1331,7 @@
         <v>14</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1033,28 +1345,28 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1071,7 +1383,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" t="s" s="2">
         <v>14</v>
@@ -1080,7 +1392,7 @@
         <v>14</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>14</v>
@@ -1089,7 +1401,7 @@
         <v>14</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1103,28 +1415,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1138,28 +1450,28 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>18</v>
@@ -1173,10 +1485,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s" s="2">
         <v>13</v>
@@ -1185,16 +1497,16 @@
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1208,10 +1520,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s" s="2">
         <v>13</v>
@@ -1220,7 +1532,7 @@
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1243,28 +1555,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1278,28 +1590,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1313,28 +1625,28 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1348,19 +1660,19 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
@@ -1369,7 +1681,7 @@
         <v>16</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1383,10 +1695,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C25" t="s" s="2">
         <v>13</v>
@@ -1395,7 +1707,7 @@
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
@@ -1418,28 +1730,28 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1453,28 +1765,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>14</v>
+        <v>74</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1488,28 +1800,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1523,10 +1835,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s" s="2">
         <v>13</v>
@@ -1535,7 +1847,7 @@
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
@@ -1544,7 +1856,7 @@
         <v>16</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1558,10 +1870,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>13</v>
@@ -1570,7 +1882,7 @@
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
@@ -1593,10 +1905,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>13</v>
@@ -1605,16 +1917,16 @@
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1628,10 +1940,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>13</v>
@@ -1640,7 +1952,7 @@
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
@@ -1649,7 +1961,7 @@
         <v>16</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1663,10 +1975,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>13</v>
@@ -1675,13 +1987,13 @@
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>14</v>
+        <v>95</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>14</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>22</v>
@@ -1698,10 +2010,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>13</v>
@@ -1710,7 +2022,7 @@
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -1733,28 +2045,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>91</v>
+        <v>14</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -1768,28 +2080,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -1803,28 +2115,28 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="B37" t="s" s="2">
-        <v>98</v>
-      </c>
       <c r="C37" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -1838,10 +2150,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>13</v>
@@ -1850,7 +2162,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -1859,7 +2171,7 @@
         <v>16</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -1873,28 +2185,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -1908,28 +2220,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -1943,28 +2255,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -1978,19 +2290,19 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
@@ -1999,7 +2311,7 @@
         <v>16</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -2013,28 +2325,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2048,28 +2360,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>112</v>
+        <v>14</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>14</v>
+        <v>122</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2083,28 +2395,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>14</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2118,28 +2430,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>111</v>
+        <v>22</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2153,19 +2465,19 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2188,19 +2500,19 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2209,7 +2521,7 @@
         <v>16</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2223,10 +2535,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>13</v>
@@ -2235,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2244,7 +2556,7 @@
         <v>16</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>126</v>
+        <v>22</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2258,19 +2570,19 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>120</v>
+        <v>13</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2279,7 +2591,7 @@
         <v>16</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>122</v>
+        <v>17</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2288,6 +2600,1966 @@
         <v>14</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E51" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C54" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="F56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C59" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="C65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="F65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E66" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="F66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E67" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="F67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E68" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="F68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E69" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="F69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E70" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="F70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E71" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="F71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="C72" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E72" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="F72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="F73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="F74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E75" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="F76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E77" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="F77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="C78" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E78" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B79" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C79" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B80" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E80" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B81" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E81" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E82" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E83" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B84" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="C84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E84" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B85" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="C85" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="D85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E85" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="B86" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="C86" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E86" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="F88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E89" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="F89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B90" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E90" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="F90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K90" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E91" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="F91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="C92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E92" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="F92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C93" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E93" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="F93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E94" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="F94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E95" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="F95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="C96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E96" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="F96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C97" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="D97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E97" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="F97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E98" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="F98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E99" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="F99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="F100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E101" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="F101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E102" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="F102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E103" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="F103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E104" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="F104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E105" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="F105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="C106" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="D106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="F106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="K106" t="s" s="2">
         <v>14</v>
       </c>
     </row>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -47,30 +47,306 @@
     <t>Method</t>
   </si>
   <si>
+    <t>onc-4at-delirium</t>
+  </si>
+  <si>
+    <t>4AT Delirium Assessment</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-score</t>
+  </si>
+  <si>
+    <t>dateTime, Period, Timing, instant</t>
+  </si>
+  <si>
+    <t>Quantityĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-alertness</t>
+  </si>
+  <si>
+    <t>CodeableConcept</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-amt4</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-attention</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#4at-acute-change</t>
+  </si>
+  <si>
+    <t>onc-abbey-pain-scale</t>
+  </si>
+  <si>
+    <t>Abbey Pain Scale</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam, Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-vocalization</t>
+  </si>
+  <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-facial-expression</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-body-language</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-behavioral-change</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-psychological-change</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abbey-physical-changes</t>
+  </si>
+  <si>
+    <t>onc-abc-chart</t>
+  </si>
+  <si>
+    <t>PBS ABC Chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-chart</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-antecedent</t>
+  </si>
+  <si>
+    <t>stringĵ</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-behaviour</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-consequence</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-duration</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#abc-intensity</t>
+  </si>
+  <si>
+    <t>onc-bristol-stool-chart</t>
+  </si>
+  <si>
+    <t>Bristol Stool Chart</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bristol-score</t>
+  </si>
+  <si>
+    <t>onc-clinical-frailty-scale</t>
+  </si>
+  <si>
+    <t>Clinical Frailty Scale (CFS)</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#cfs-score</t>
+  </si>
+  <si>
+    <t>onc-fluid-balance</t>
+  </si>
+  <si>
+    <t>Fluid Balance</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-balance</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-input-total</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#fluid-output-total</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urine-output</t>
+  </si>
+  <si>
+    <t>onc-mental-capacity</t>
+  </si>
+  <si>
+    <t>Mental Capacity Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mca-assessment</t>
+  </si>
+  <si>
+    <t>onc-oral-health</t>
+  </si>
+  <si>
+    <t>Oral Health Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-health-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-lips</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-tongue</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-gums</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-teeth</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-saliva</t>
+  </si>
+  <si>
+    <t>onc-patient-story</t>
+  </si>
+  <si>
+    <t>Patient Story</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#social-history</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#patient-story</t>
+  </si>
+  <si>
+    <t>onc-reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>Reasonable Adjustment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#reasonable-adjustment</t>
+  </si>
+  <si>
+    <t>onc-relational-observation</t>
+  </si>
+  <si>
+    <t>Relational Engagement Score</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#relational-engagement</t>
+  </si>
+  <si>
+    <t>onc-seizure-record</t>
+  </si>
+  <si>
+    <t>Seizure Record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-type</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-duration</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-recovery</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-trigger</t>
+  </si>
+  <si>
+    <t>onc-sleep-pattern</t>
+  </si>
+  <si>
+    <t>Sleep Pattern</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-quality</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-hours</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-disturbances</t>
+  </si>
+  <si>
+    <t>onc-urinalysis</t>
+  </si>
+  <si>
+    <t>Urinalysis</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urinalysis-panel</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-leukocytes</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-nitrites</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-blood</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-protein</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-glucose</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ketones</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ph</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-sg</t>
+  </si>
+  <si>
+    <t>onc-what-matters</t>
+  </si>
+  <si>
+    <t>What Matters to Me</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#what-matters</t>
+  </si>
+  <si>
     <t>onc-acvpu</t>
   </si>
   <si>
     <t>ACVPU Consciousness Level</t>
   </si>
   <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>SNOMED CT#1104441000000107</t>
   </si>
   <si>
-    <t>dateTime, Period, Timing, instant</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
     <t>onc-barthel-index</t>
   </si>
   <si>
@@ -80,9 +356,6 @@
     <t>ONC Observation Codes#barthel-score</t>
   </si>
   <si>
-    <t>Quantityĵ</t>
-  </si>
-  <si>
     <t>onc-bladder-assessment</t>
   </si>
   <si>
@@ -107,9 +380,6 @@
     <t>LOINC#8480-6</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>LOINC#8462-4</t>
   </si>
   <si>
@@ -215,9 +485,6 @@
     <t>SNOMED CT#390906007</t>
   </si>
   <si>
-    <t>CodeableConcept</t>
-  </si>
-  <si>
     <t>onc-heart-rate</t>
   </si>
   <si>
@@ -380,7 +647,7 @@
     <t>Pain Assessment (NRS 0-10)</t>
   </si>
   <si>
-    <t>https://clinyqai.github.io/open-nursing-core-ig/ValueSet/pain-assessment-code-vs (required)</t>
+    <t>https://opennursingcoreig.com/ValueSet/pain-assessment-code-vs (required)</t>
   </si>
   <si>
     <t>dateTime</t>
@@ -447,273 +714,6 @@
   </si>
   <si>
     <t>SNOMED CT#425094009</t>
-  </si>
-  <si>
-    <t>onc-4at-delirium</t>
-  </si>
-  <si>
-    <t>4AT Delirium Assessment</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey, Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#4at-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#4at-alertness</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#4at-amt4</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#4at-attention</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#4at-acute-change</t>
-  </si>
-  <si>
-    <t>onc-abbey-pain-scale</t>
-  </si>
-  <si>
-    <t>Abbey Pain Scale</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam, Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-vocalization</t>
-  </si>
-  <si>
-    <t>integerĵ</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-facial-expression</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-body-language</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-behavioral-change</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-psychological-change</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abbey-physical-changes</t>
-  </si>
-  <si>
-    <t>onc-abc-chart</t>
-  </si>
-  <si>
-    <t>PBS ABC Chart</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abc-chart</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abc-antecedent</t>
-  </si>
-  <si>
-    <t>stringĵ</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abc-behaviour</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abc-consequence</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abc-duration</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#abc-intensity</t>
-  </si>
-  <si>
-    <t>onc-bristol-stool-chart</t>
-  </si>
-  <si>
-    <t>Bristol Stool Chart</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#bristol-score</t>
-  </si>
-  <si>
-    <t>onc-clinical-frailty-scale</t>
-  </si>
-  <si>
-    <t>Clinical Frailty Scale (CFS)</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#cfs-score</t>
-  </si>
-  <si>
-    <t>onc-fluid-balance</t>
-  </si>
-  <si>
-    <t>Fluid Balance</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#fluid-balance</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#fluid-input-total</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#fluid-output-total</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#urine-output</t>
-  </si>
-  <si>
-    <t>onc-mental-capacity</t>
-  </si>
-  <si>
-    <t>Mental Capacity Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#mca-assessment</t>
-  </si>
-  <si>
-    <t>onc-oral-health</t>
-  </si>
-  <si>
-    <t>Oral Health Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-health-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-lips</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-tongue</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-gums</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-teeth</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-saliva</t>
-  </si>
-  <si>
-    <t>onc-patient-story</t>
-  </si>
-  <si>
-    <t>Patient Story</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#social-history</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#patient-story</t>
-  </si>
-  <si>
-    <t>onc-reasonable-adjustment</t>
-  </si>
-  <si>
-    <t>Reasonable Adjustment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#reasonable-adjustment</t>
-  </si>
-  <si>
-    <t>onc-relational-observation</t>
-  </si>
-  <si>
-    <t>Relational Engagement Score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#relational-engagement</t>
-  </si>
-  <si>
-    <t>onc-seizure-record</t>
-  </si>
-  <si>
-    <t>Seizure Record</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-record</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-type</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-duration</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-recovery</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-trigger</t>
-  </si>
-  <si>
-    <t>onc-sleep-pattern</t>
-  </si>
-  <si>
-    <t>Sleep Pattern</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-record</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-quality</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-hours</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-disturbances</t>
-  </si>
-  <si>
-    <t>onc-urinalysis</t>
-  </si>
-  <si>
-    <t>Urinalysis</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#urinalysis-panel</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-leukocytes</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-nitrites</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-blood</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-protein</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-glucose</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-ketones</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-ph</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-sg</t>
-  </si>
-  <si>
-    <t>onc-what-matters</t>
-  </si>
-  <si>
-    <t>What Matters to Me</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#what-matters</t>
   </si>
 </sst>
 </file>
@@ -925,28 +925,28 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E3" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="F3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s" s="2">
         <v>20</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>22</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>18</v>
@@ -960,28 +960,28 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>18</v>
@@ -995,28 +995,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>18</v>
@@ -1033,7 +1033,7 @@
         <v>14</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s" s="2">
         <v>14</v>
@@ -1042,7 +1042,7 @@
         <v>14</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>14</v>
@@ -1051,7 +1051,7 @@
         <v>14</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>18</v>
@@ -1065,28 +1065,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E7" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="C7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D7" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s" s="2">
-        <v>32</v>
-      </c>
       <c r="F7" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>18</v>
@@ -1100,28 +1100,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>18</v>
@@ -1135,28 +1135,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>18</v>
@@ -1170,28 +1170,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>18</v>
@@ -1208,7 +1208,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s" s="2">
         <v>14</v>
@@ -1217,7 +1217,7 @@
         <v>14</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s" s="2">
         <v>14</v>
@@ -1226,7 +1226,7 @@
         <v>14</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>18</v>
@@ -1243,7 +1243,7 @@
         <v>14</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s" s="2">
         <v>14</v>
@@ -1252,7 +1252,7 @@
         <v>14</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s" s="2">
         <v>14</v>
@@ -1261,7 +1261,7 @@
         <v>14</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>18</v>
@@ -1278,7 +1278,7 @@
         <v>14</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="2">
         <v>14</v>
@@ -1287,7 +1287,7 @@
         <v>14</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>14</v>
@@ -1296,7 +1296,7 @@
         <v>14</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I13" t="s" s="2">
         <v>18</v>
@@ -1310,28 +1310,28 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>18</v>
@@ -1348,25 +1348,25 @@
         <v>14</v>
       </c>
       <c r="B15" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="C15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>18</v>
@@ -1383,25 +1383,25 @@
         <v>14</v>
       </c>
       <c r="B16" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s" s="2">
         <v>40</v>
-      </c>
-      <c r="C16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E16" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="F16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="H16" t="s" s="2">
-        <v>31</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>18</v>
@@ -1415,28 +1415,28 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>18</v>
@@ -1450,25 +1450,25 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>17</v>
@@ -1485,28 +1485,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>18</v>
@@ -1520,19 +1520,19 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>14</v>
@@ -1541,7 +1541,7 @@
         <v>16</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>18</v>
@@ -1555,28 +1555,28 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>18</v>
@@ -1590,28 +1590,28 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>18</v>
@@ -1628,7 +1628,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>14</v>
@@ -1637,7 +1637,7 @@
         <v>14</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>14</v>
@@ -1646,7 +1646,7 @@
         <v>14</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="I23" t="s" s="2">
         <v>18</v>
@@ -1660,10 +1660,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s" s="2">
         <v>14</v>
@@ -1672,16 +1672,16 @@
         <v>14</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>18</v>
@@ -1695,28 +1695,28 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>18</v>
@@ -1730,19 +1730,19 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>71</v>
+        <v>57</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>14</v>
@@ -1751,7 +1751,7 @@
         <v>16</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>18</v>
@@ -1765,19 +1765,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>14</v>
@@ -1786,7 +1786,7 @@
         <v>16</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>17</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>18</v>
@@ -1800,28 +1800,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>78</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>18</v>
@@ -1835,28 +1835,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>18</v>
@@ -1870,28 +1870,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>86</v>
+        <v>66</v>
       </c>
       <c r="F30" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -1905,28 +1905,28 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>87</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>89</v>
+        <v>67</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>18</v>
@@ -1940,28 +1940,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>90</v>
+        <v>14</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>18</v>
@@ -1975,19 +1975,19 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D33" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>14</v>
@@ -1996,7 +1996,7 @@
         <v>16</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>18</v>
@@ -2010,19 +2010,19 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -2045,28 +2045,28 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -2080,28 +2080,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -2118,7 +2118,7 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>14</v>
@@ -2127,7 +2127,7 @@
         <v>14</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -2150,28 +2150,28 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>102</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -2185,28 +2185,28 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>105</v>
+        <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -2220,28 +2220,28 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>108</v>
+        <v>14</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2255,19 +2255,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
@@ -2276,7 +2276,7 @@
         <v>16</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2290,28 +2290,28 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>116</v>
+        <v>91</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -2325,28 +2325,28 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2360,28 +2360,28 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>120</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>14</v>
+        <v>93</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>123</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2395,19 +2395,19 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s" s="2">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
@@ -2416,7 +2416,7 @@
         <v>16</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2430,28 +2430,28 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>127</v>
+        <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>18</v>
@@ -2465,28 +2465,28 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>130</v>
+        <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>18</v>
@@ -2500,28 +2500,28 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -2535,28 +2535,28 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>136</v>
+        <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>137</v>
+        <v>95</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
@@ -2570,28 +2570,28 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>139</v>
+        <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>141</v>
+        <v>101</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -2608,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>14</v>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>142</v>
+        <v>102</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2626,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>31</v>
+        <v>64</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2652,7 +2652,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2661,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2678,7 +2678,7 @@
         <v>14</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C53" t="s" s="2">
         <v>14</v>
@@ -2687,7 +2687,7 @@
         <v>14</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>14</v>
@@ -2696,7 +2696,7 @@
         <v>14</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2710,19 +2710,19 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>147</v>
+        <v>71</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>148</v>
+        <v>107</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>14</v>
@@ -2731,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2745,28 +2745,28 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>14</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>146</v>
+        <v>109</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>149</v>
+        <v>110</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2780,28 +2780,28 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>150</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2815,28 +2815,28 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>14</v>
+        <v>114</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2850,28 +2850,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>146</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>67</v>
+        <v>120</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2885,28 +2885,28 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>153</v>
+        <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2923,7 +2923,7 @@
         <v>14</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="C60" t="s" s="2">
         <v>14</v>
@@ -2932,7 +2932,7 @@
         <v>14</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>157</v>
+        <v>122</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>14</v>
@@ -2941,7 +2941,7 @@
         <v>14</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2955,28 +2955,28 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>14</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>159</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2990,28 +2990,28 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>14</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="F62" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -3025,28 +3025,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>14</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -3063,7 +3063,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C64" t="s" s="2">
         <v>14</v>
@@ -3072,7 +3072,7 @@
         <v>14</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
@@ -3081,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3098,7 +3098,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -3107,7 +3107,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -3116,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>158</v>
+        <v>85</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -3130,28 +3130,28 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>166</v>
+        <v>134</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3168,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>14</v>
@@ -3177,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>167</v>
+        <v>135</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>14</v>
@@ -3186,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3203,7 +3203,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>14</v>
@@ -3212,7 +3212,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>169</v>
+        <v>136</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3221,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3238,7 +3238,7 @@
         <v>14</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>14</v>
@@ -3247,7 +3247,7 @@
         <v>14</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="F69" t="s" s="2">
         <v>14</v>
@@ -3256,7 +3256,7 @@
         <v>14</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3270,28 +3270,28 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -3305,28 +3305,28 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>172</v>
+        <v>144</v>
       </c>
       <c r="F71" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>158</v>
+        <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>18</v>
@@ -3340,19 +3340,19 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="F72" t="s" s="2">
         <v>14</v>
@@ -3361,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>22</v>
+        <v>141</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>18</v>
@@ -3375,19 +3375,19 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
@@ -3410,28 +3410,28 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>179</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D74" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3448,7 +3448,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3466,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3483,7 +3483,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3492,7 +3492,7 @@
         <v>14</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="F76" t="s" s="2">
         <v>14</v>
@@ -3501,7 +3501,7 @@
         <v>14</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3515,10 +3515,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>180</v>
+        <v>155</v>
       </c>
       <c r="C77" t="s" s="2">
         <v>14</v>
@@ -3527,16 +3527,16 @@
         <v>14</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>184</v>
+        <v>156</v>
       </c>
       <c r="F77" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3550,19 +3550,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="F78" t="s" s="2">
         <v>14</v>
@@ -3585,19 +3585,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s" s="2">
         <v>14</v>
@@ -3606,7 +3606,7 @@
         <v>16</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3620,28 +3620,28 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>189</v>
+        <v>164</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>18</v>
@@ -3655,28 +3655,28 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H81" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I81" t="s" s="2">
         <v>18</v>
@@ -3690,28 +3690,28 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="F82" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -3725,28 +3725,28 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>14</v>
+        <v>173</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F83" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>18</v>
@@ -3760,28 +3760,28 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>14</v>
+        <v>176</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="F84" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>18</v>
@@ -3795,19 +3795,19 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>197</v>
+        <v>179</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>14</v>
@@ -3816,7 +3816,7 @@
         <v>16</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>168</v>
+        <v>38</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>18</v>
@@ -3830,19 +3830,19 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>14</v>
@@ -3851,7 +3851,7 @@
         <v>16</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>18</v>
@@ -3865,19 +3865,19 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D87" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
@@ -3886,7 +3886,7 @@
         <v>16</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>158</v>
+        <v>17</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>18</v>
@@ -3900,28 +3900,28 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>207</v>
+        <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>155</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>18</v>
@@ -3938,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>14</v>
@@ -3947,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3956,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>192</v>
+        <v>85</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>18</v>
@@ -3973,7 +3973,7 @@
         <v>14</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>14</v>
@@ -3982,7 +3982,7 @@
         <v>14</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="F90" t="s" s="2">
         <v>14</v>
@@ -3991,7 +3991,7 @@
         <v>14</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>18</v>
@@ -4005,28 +4005,28 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>14</v>
+        <v>191</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="F91" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G91" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I91" t="s" s="2">
         <v>18</v>
@@ -4040,28 +4040,28 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>14</v>
+        <v>194</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="F92" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -4075,28 +4075,28 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>216</v>
+        <v>14</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>18</v>
@@ -4110,28 +4110,28 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H94" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>18</v>
@@ -4145,28 +4145,28 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="F95" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -4180,28 +4180,28 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>14</v>
+        <v>206</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="F96" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>18</v>
@@ -4215,28 +4215,28 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>222</v>
+        <v>14</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>168</v>
+        <v>17</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>18</v>
@@ -4250,28 +4250,28 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>14</v>
+        <v>213</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F98" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>18</v>
@@ -4285,28 +4285,28 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>14</v>
+        <v>216</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F99" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H99" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I99" t="s" s="2">
         <v>18</v>
@@ -4320,28 +4320,28 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="B100" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="C100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="D100" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E100" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="C100" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D100" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E100" t="s" s="2">
-        <v>225</v>
-      </c>
       <c r="F100" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H100" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I100" t="s" s="2">
         <v>18</v>
@@ -4355,28 +4355,28 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>14</v>
+        <v>222</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>18</v>
@@ -4390,13 +4390,13 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>14</v>
@@ -4408,10 +4408,10 @@
         <v>14</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H102" t="s" s="2">
-        <v>192</v>
+        <v>17</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>18</v>
@@ -4425,28 +4425,28 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>14</v>
+        <v>228</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F103" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H103" t="s" s="2">
-        <v>192</v>
+        <v>38</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>18</v>
@@ -4463,7 +4463,7 @@
         <v>14</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>14</v>
@@ -4472,7 +4472,7 @@
         <v>14</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F104" t="s" s="2">
         <v>14</v>
@@ -4481,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>18</v>
@@ -4498,7 +4498,7 @@
         <v>14</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="C105" t="s" s="2">
         <v>14</v>
@@ -4507,7 +4507,7 @@
         <v>14</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F105" t="s" s="2">
         <v>14</v>
@@ -4516,7 +4516,7 @@
         <v>14</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>18</v>
@@ -4530,13 +4530,13 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>231</v>
+        <v>14</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s" s="2">
         <v>14</v>
@@ -4548,10 +4548,10 @@
         <v>14</v>
       </c>
       <c r="G106" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>18</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -233,6 +233,426 @@
     <t>ONC Observation Codes#patient-story</t>
   </si>
   <si>
+    <t>onc-relational-observation</t>
+  </si>
+  <si>
+    <t>Relational Engagement Score</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#survey</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#relational-engagement</t>
+  </si>
+  <si>
+    <t>onc-seizure-record</t>
+  </si>
+  <si>
+    <t>Seizure Record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-type</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-duration</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-recovery</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#seizure-trigger</t>
+  </si>
+  <si>
+    <t>onc-sleep-pattern</t>
+  </si>
+  <si>
+    <t>Sleep Pattern</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-record</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-quality</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-hours</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#sleep-disturbances</t>
+  </si>
+  <si>
+    <t>onc-urinalysis</t>
+  </si>
+  <si>
+    <t>Urinalysis</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#urinalysis-panel</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-leukocytes</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-nitrites</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-blood</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-protein</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-glucose</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ketones</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-ph</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#ua-sg</t>
+  </si>
+  <si>
+    <t>onc-what-matters</t>
+  </si>
+  <si>
+    <t>What Matters to Me</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#what-matters</t>
+  </si>
+  <si>
+    <t>onc-acvpu</t>
+  </si>
+  <si>
+    <t>ACVPU Consciousness Level</t>
+  </si>
+  <si>
+    <t>SNOMED CT#1104441000000107</t>
+  </si>
+  <si>
+    <t>onc-barthel-index</t>
+  </si>
+  <si>
+    <t>Barthel Index</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#barthel-score</t>
+  </si>
+  <si>
+    <t>onc-bladder-assessment</t>
+  </si>
+  <si>
+    <t>Bladder Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bladder-assessment</t>
+  </si>
+  <si>
+    <t>onc-blood-pressure</t>
+  </si>
+  <si>
+    <t>Blood Pressure</t>
+  </si>
+  <si>
+    <t>LOINC#85354-9</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>LOINC#8480-6</t>
+  </si>
+  <si>
+    <t>LOINC#8462-4</t>
+  </si>
+  <si>
+    <t>onc-body-temperature</t>
+  </si>
+  <si>
+    <t>Body Temperature</t>
+  </si>
+  <si>
+    <t>LOINC#8310-5</t>
+  </si>
+  <si>
+    <t>onc-bowel-assessment</t>
+  </si>
+  <si>
+    <t>Bowel Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#bowel-assessment</t>
+  </si>
+  <si>
+    <t>onc-braden-scale-assessment</t>
+  </si>
+  <si>
+    <t>Braden Scale Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-total-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-sensory</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-moisture</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-activity</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-mobility</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-nutrition</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#braden-friction</t>
+  </si>
+  <si>
+    <t>onc-catheter-care</t>
+  </si>
+  <si>
+    <t>Catheter Care</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#catheter-care</t>
+  </si>
+  <si>
+    <t>CodeableConceptĵ, stringĵ</t>
+  </si>
+  <si>
+    <t>onc-continence-assessment</t>
+  </si>
+  <si>
+    <t>Continence Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#continence-assessment</t>
+  </si>
+  <si>
+    <t>onc-dietary-requirements</t>
+  </si>
+  <si>
+    <t>Dietary Requirements</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#dietary-requirements</t>
+  </si>
+  <si>
+    <t>onc-glasgow-coma-scale</t>
+  </si>
+  <si>
+    <t>Glasgow Coma Scale</t>
+  </si>
+  <si>
+    <t>LOINC#9269-2</t>
+  </si>
+  <si>
+    <t>LOINC#9267-6</t>
+  </si>
+  <si>
+    <t>LOINC#9270-0</t>
+  </si>
+  <si>
+    <t>LOINC#9268-4</t>
+  </si>
+  <si>
+    <t>onc-goal-evaluation</t>
+  </si>
+  <si>
+    <t>ONC Goal Evaluation</t>
+  </si>
+  <si>
+    <t>SNOMED CT#390906007</t>
+  </si>
+  <si>
+    <t>onc-heart-rate</t>
+  </si>
+  <si>
+    <t>Heart Rate</t>
+  </si>
+  <si>
+    <t>LOINC#8867-4</t>
+  </si>
+  <si>
+    <t>onc-hygiene-assessment</t>
+  </si>
+  <si>
+    <t>Personal Hygiene Needs Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#hygiene-needs</t>
+  </si>
+  <si>
+    <t>onc-inspired-oxygen</t>
+  </si>
+  <si>
+    <t>Inspired Oxygen</t>
+  </si>
+  <si>
+    <t>LOINC#3151-8</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ</t>
+  </si>
+  <si>
+    <t>onc-medication-ability</t>
+  </si>
+  <si>
+    <t>Medication Management Ability</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#medication-ability</t>
+  </si>
+  <si>
+    <t>onc-medication-self-admin</t>
+  </si>
+  <si>
+    <t>Medication Self-Administration Observation</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#medication-self-admin</t>
+  </si>
+  <si>
+    <t>onc-mmse</t>
+  </si>
+  <si>
+    <t>Mini Mental State Examination (MMSE)</t>
+  </si>
+  <si>
+    <t>LOINC#72106-8</t>
+  </si>
+  <si>
+    <t>onc-mobility-assessment</t>
+  </si>
+  <si>
+    <t>Mobility Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mobility</t>
+  </si>
+  <si>
+    <t>onc-monk-skintone-observation</t>
+  </si>
+  <si>
+    <t>Monk Skin Tone Observation</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#mst-score</t>
+  </si>
+  <si>
+    <t>onc-morse-fall-scale</t>
+  </si>
+  <si>
+    <t>Morse Fall Scale</t>
+  </si>
+  <si>
+    <t>LOINC#73830-2</t>
+  </si>
+  <si>
+    <t>onc-must-score</t>
+  </si>
+  <si>
+    <t>MUST Score (Malnutrition Universal Screening Tool)</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-bmi-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-weight-loss-score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#must-acute-disease-score</t>
+  </si>
+  <si>
+    <t>onc-news2-score</t>
+  </si>
+  <si>
+    <t>NEWS2 Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#news2-score</t>
+  </si>
+  <si>
+    <t>onc-news2-subscore</t>
+  </si>
+  <si>
+    <t>NEWS2 Sub-Score</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#news2-subscore</t>
+  </si>
+  <si>
+    <t>onc-nursing-assessment</t>
+  </si>
+  <si>
+    <t>Open Nursing Core Assessment</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
+  </si>
+  <si>
+    <t>onc-oral-care-assessment</t>
+  </si>
+  <si>
+    <t>Oral Care Needs Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-care</t>
+  </si>
+  <si>
+    <t>onc-oral-intake-assessment</t>
+  </si>
+  <si>
+    <t>Oral Intake Assessment</t>
+  </si>
+  <si>
+    <t>ONC Observation Codes#oral-intake</t>
+  </si>
+  <si>
+    <t>onc-oxygen-saturation</t>
+  </si>
+  <si>
+    <t>Oxygen Saturation</t>
+  </si>
+  <si>
+    <t>LOINC#59408-5</t>
+  </si>
+  <si>
+    <t>onc-pain-assessment</t>
+  </si>
+  <si>
+    <t>Pain Assessment (NRS 0-10)</t>
+  </si>
+  <si>
+    <t>https://opennursingcoreig.com/ValueSet/pain-assessment-code-vs (required)</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
+    <t>onc-qsofa</t>
+  </si>
+  <si>
+    <t>qSOFA (Quick SOFA)</t>
+  </si>
+  <si>
+    <t>LOINC#96790-1</t>
+  </si>
+  <si>
     <t>onc-reasonable-adjustment</t>
   </si>
   <si>
@@ -240,426 +660,6 @@
   </si>
   <si>
     <t>ONC Observation Codes#reasonable-adjustment</t>
-  </si>
-  <si>
-    <t>onc-relational-observation</t>
-  </si>
-  <si>
-    <t>Relational Engagement Score</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#survey</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#relational-engagement</t>
-  </si>
-  <si>
-    <t>onc-seizure-record</t>
-  </si>
-  <si>
-    <t>Seizure Record</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-record</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-type</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-duration</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-recovery</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#seizure-trigger</t>
-  </si>
-  <si>
-    <t>onc-sleep-pattern</t>
-  </si>
-  <si>
-    <t>Sleep Pattern</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-record</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-quality</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-hours</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#sleep-disturbances</t>
-  </si>
-  <si>
-    <t>onc-urinalysis</t>
-  </si>
-  <si>
-    <t>Urinalysis</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#urinalysis-panel</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-leukocytes</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-nitrites</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-blood</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-protein</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-glucose</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-ketones</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-ph</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#ua-sg</t>
-  </si>
-  <si>
-    <t>onc-what-matters</t>
-  </si>
-  <si>
-    <t>What Matters to Me</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#what-matters</t>
-  </si>
-  <si>
-    <t>onc-acvpu</t>
-  </si>
-  <si>
-    <t>ACVPU Consciousness Level</t>
-  </si>
-  <si>
-    <t>SNOMED CT#1104441000000107</t>
-  </si>
-  <si>
-    <t>onc-barthel-index</t>
-  </si>
-  <si>
-    <t>Barthel Index</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#barthel-score</t>
-  </si>
-  <si>
-    <t>onc-bladder-assessment</t>
-  </si>
-  <si>
-    <t>Bladder Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#bladder-assessment</t>
-  </si>
-  <si>
-    <t>onc-blood-pressure</t>
-  </si>
-  <si>
-    <t>Blood Pressure</t>
-  </si>
-  <si>
-    <t>LOINC#85354-9</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ</t>
-  </si>
-  <si>
-    <t>LOINC#8480-6</t>
-  </si>
-  <si>
-    <t>LOINC#8462-4</t>
-  </si>
-  <si>
-    <t>onc-body-temperature</t>
-  </si>
-  <si>
-    <t>Body Temperature</t>
-  </si>
-  <si>
-    <t>LOINC#8310-5</t>
-  </si>
-  <si>
-    <t>onc-bowel-assessment</t>
-  </si>
-  <si>
-    <t>Bowel Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#bowel-assessment</t>
-  </si>
-  <si>
-    <t>onc-braden-scale-assessment</t>
-  </si>
-  <si>
-    <t>Braden Scale Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-total-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-sensory</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-moisture</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-activity</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-mobility</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-nutrition</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#braden-friction</t>
-  </si>
-  <si>
-    <t>onc-catheter-care</t>
-  </si>
-  <si>
-    <t>Catheter Care</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#catheter-care</t>
-  </si>
-  <si>
-    <t>CodeableConceptĵ, stringĵ</t>
-  </si>
-  <si>
-    <t>onc-continence-assessment</t>
-  </si>
-  <si>
-    <t>Continence Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#continence-assessment</t>
-  </si>
-  <si>
-    <t>onc-dietary-requirements</t>
-  </si>
-  <si>
-    <t>Dietary Requirements</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#dietary-requirements</t>
-  </si>
-  <si>
-    <t>onc-glasgow-coma-scale</t>
-  </si>
-  <si>
-    <t>Glasgow Coma Scale</t>
-  </si>
-  <si>
-    <t>LOINC#9269-2</t>
-  </si>
-  <si>
-    <t>LOINC#9267-6</t>
-  </si>
-  <si>
-    <t>LOINC#9270-0</t>
-  </si>
-  <si>
-    <t>LOINC#9268-4</t>
-  </si>
-  <si>
-    <t>onc-goal-evaluation</t>
-  </si>
-  <si>
-    <t>ONC Goal Evaluation</t>
-  </si>
-  <si>
-    <t>SNOMED CT#390906007</t>
-  </si>
-  <si>
-    <t>onc-heart-rate</t>
-  </si>
-  <si>
-    <t>Heart Rate</t>
-  </si>
-  <si>
-    <t>LOINC#8867-4</t>
-  </si>
-  <si>
-    <t>onc-hygiene-assessment</t>
-  </si>
-  <si>
-    <t>Personal Hygiene Needs Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#hygiene-needs</t>
-  </si>
-  <si>
-    <t>onc-inspired-oxygen</t>
-  </si>
-  <si>
-    <t>Inspired Oxygen</t>
-  </si>
-  <si>
-    <t>LOINC#3151-8</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ</t>
-  </si>
-  <si>
-    <t>onc-medication-ability</t>
-  </si>
-  <si>
-    <t>Medication Management Ability</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#medication-ability</t>
-  </si>
-  <si>
-    <t>onc-medication-self-admin</t>
-  </si>
-  <si>
-    <t>Medication Self-Administration Observation</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#medication-self-admin</t>
-  </si>
-  <si>
-    <t>onc-mmse</t>
-  </si>
-  <si>
-    <t>Mini Mental State Examination (MMSE)</t>
-  </si>
-  <si>
-    <t>LOINC#72106-8</t>
-  </si>
-  <si>
-    <t>onc-mobility-assessment</t>
-  </si>
-  <si>
-    <t>Mobility Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#mobility</t>
-  </si>
-  <si>
-    <t>onc-monk-skintone-observation</t>
-  </si>
-  <si>
-    <t>Monk Skin Tone Observation</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#mst-score</t>
-  </si>
-  <si>
-    <t>onc-morse-fall-scale</t>
-  </si>
-  <si>
-    <t>Morse Fall Scale</t>
-  </si>
-  <si>
-    <t>LOINC#73830-2</t>
-  </si>
-  <si>
-    <t>onc-must-score</t>
-  </si>
-  <si>
-    <t>MUST Score (Malnutrition Universal Screening Tool)</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#must-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#must-bmi-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#must-weight-loss-score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#must-acute-disease-score</t>
-  </si>
-  <si>
-    <t>onc-news2-score</t>
-  </si>
-  <si>
-    <t>NEWS2 Score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#news2-score</t>
-  </si>
-  <si>
-    <t>onc-news2-subscore</t>
-  </si>
-  <si>
-    <t>NEWS2 Sub-Score</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#news2-subscore</t>
-  </si>
-  <si>
-    <t>onc-nursing-assessment</t>
-  </si>
-  <si>
-    <t>Open Nursing Core Assessment</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1 (example)</t>
-  </si>
-  <si>
-    <t>onc-oral-care-assessment</t>
-  </si>
-  <si>
-    <t>Oral Care Needs Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-care</t>
-  </si>
-  <si>
-    <t>onc-oral-intake-assessment</t>
-  </si>
-  <si>
-    <t>Oral Intake Assessment</t>
-  </si>
-  <si>
-    <t>ONC Observation Codes#oral-intake</t>
-  </si>
-  <si>
-    <t>onc-oxygen-saturation</t>
-  </si>
-  <si>
-    <t>Oxygen Saturation</t>
-  </si>
-  <si>
-    <t>LOINC#59408-5</t>
-  </si>
-  <si>
-    <t>onc-pain-assessment</t>
-  </si>
-  <si>
-    <t>Pain Assessment (NRS 0-10)</t>
-  </si>
-  <si>
-    <t>https://opennursingcoreig.com/ValueSet/pain-assessment-code-vs (required)</t>
-  </si>
-  <si>
-    <t>dateTime</t>
-  </si>
-  <si>
-    <t>onc-qsofa</t>
-  </si>
-  <si>
-    <t>qSOFA (Quick SOFA)</t>
-  </si>
-  <si>
-    <t>LOINC#96790-1</t>
   </si>
   <si>
     <t>onc-respiration-rate</t>
@@ -2016,13 +2016,13 @@
         <v>74</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="D34" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>14</v>
@@ -2031,7 +2031,7 @@
         <v>16</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>18</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="D35" t="s" s="2">
         <v>14</v>
@@ -2066,7 +2066,7 @@
         <v>16</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>18</v>
@@ -2080,28 +2080,28 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E36" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="B36" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="D36" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E36" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="F36" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I36" t="s" s="2">
         <v>18</v>
@@ -2118,17 +2118,17 @@
         <v>14</v>
       </c>
       <c r="B37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E37" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="C37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D37" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E37" t="s" s="2">
-        <v>83</v>
-      </c>
       <c r="F37" t="s" s="2">
         <v>14</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>14</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>18</v>
@@ -2153,7 +2153,7 @@
         <v>14</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C38" t="s" s="2">
         <v>14</v>
@@ -2162,7 +2162,7 @@
         <v>14</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>14</v>
@@ -2171,7 +2171,7 @@
         <v>14</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>18</v>
@@ -2188,7 +2188,7 @@
         <v>14</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s" s="2">
         <v>14</v>
@@ -2197,7 +2197,7 @@
         <v>14</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>14</v>
@@ -2220,13 +2220,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>14</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D40" t="s" s="2">
         <v>14</v>
@@ -2238,10 +2238,10 @@
         <v>14</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>18</v>
@@ -2255,28 +2255,28 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D41" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="B41" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="D41" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E41" t="s" s="2">
-        <v>90</v>
-      </c>
       <c r="F41" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>18</v>
@@ -2293,17 +2293,17 @@
         <v>14</v>
       </c>
       <c r="B42" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D42" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E42" t="s" s="2">
-        <v>91</v>
-      </c>
       <c r="F42" t="s" s="2">
         <v>14</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -2328,7 +2328,7 @@
         <v>14</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s" s="2">
         <v>14</v>
@@ -2337,7 +2337,7 @@
         <v>14</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>14</v>
@@ -2346,7 +2346,7 @@
         <v>14</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -2360,13 +2360,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s" s="2">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D44" t="s" s="2">
         <v>14</v>
@@ -2378,10 +2378,10 @@
         <v>14</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>18</v>
@@ -2395,28 +2395,28 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E45" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="B45" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="C45" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="D45" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E45" t="s" s="2">
-        <v>96</v>
-      </c>
       <c r="F45" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>64</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>18</v>
@@ -2433,16 +2433,16 @@
         <v>14</v>
       </c>
       <c r="B46" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="C46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E46" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D46" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E46" t="s" s="2">
-        <v>97</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>14</v>
@@ -2468,7 +2468,7 @@
         <v>14</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C47" t="s" s="2">
         <v>14</v>
@@ -2477,7 +2477,7 @@
         <v>14</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>14</v>
@@ -2503,7 +2503,7 @@
         <v>14</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>14</v>
@@ -2512,7 +2512,7 @@
         <v>14</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>14</v>
@@ -2538,7 +2538,7 @@
         <v>14</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>14</v>
@@ -2547,7 +2547,7 @@
         <v>14</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s" s="2">
         <v>14</v>
@@ -2573,7 +2573,7 @@
         <v>14</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s" s="2">
         <v>14</v>
@@ -2582,7 +2582,7 @@
         <v>14</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>14</v>
@@ -2608,7 +2608,7 @@
         <v>14</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>14</v>
@@ -2617,7 +2617,7 @@
         <v>14</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>14</v>
@@ -2626,7 +2626,7 @@
         <v>14</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -2643,7 +2643,7 @@
         <v>14</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s" s="2">
         <v>14</v>
@@ -2652,7 +2652,7 @@
         <v>14</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>14</v>
@@ -2661,7 +2661,7 @@
         <v>14</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -2675,13 +2675,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>14</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>14</v>
@@ -2693,10 +2693,10 @@
         <v>14</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>18</v>
@@ -2716,7 +2716,7 @@
         <v>106</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D54" t="s" s="2">
         <v>14</v>
@@ -2731,7 +2731,7 @@
         <v>16</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>18</v>
@@ -2751,7 +2751,7 @@
         <v>109</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>14</v>
@@ -2766,7 +2766,7 @@
         <v>16</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>18</v>
@@ -2786,7 +2786,7 @@
         <v>112</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>14</v>
@@ -2801,7 +2801,7 @@
         <v>16</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>18</v>
@@ -2821,7 +2821,7 @@
         <v>115</v>
       </c>
       <c r="C57" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s" s="2">
         <v>14</v>
@@ -2836,7 +2836,7 @@
         <v>16</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>18</v>
@@ -2850,28 +2850,28 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>117</v>
+        <v>14</v>
       </c>
       <c r="B58" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D58" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E58" t="s" s="2">
-        <v>119</v>
-      </c>
       <c r="F58" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>18</v>
@@ -2888,7 +2888,7 @@
         <v>14</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C59" t="s" s="2">
         <v>14</v>
@@ -2897,7 +2897,7 @@
         <v>14</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>14</v>
@@ -2906,7 +2906,7 @@
         <v>14</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>18</v>
@@ -2920,13 +2920,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D60" t="s" s="2">
         <v>14</v>
@@ -2938,10 +2938,10 @@
         <v>14</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>18</v>
@@ -2961,7 +2961,7 @@
         <v>124</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D61" t="s" s="2">
         <v>14</v>
@@ -2976,7 +2976,7 @@
         <v>16</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>18</v>
@@ -2996,7 +2996,7 @@
         <v>127</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s" s="2">
         <v>14</v>
@@ -3011,7 +3011,7 @@
         <v>16</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>18</v>
@@ -3025,28 +3025,28 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D63" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E63" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="B63" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="C63" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D63" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E63" t="s" s="2">
-        <v>131</v>
-      </c>
       <c r="F63" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -3063,17 +3063,17 @@
         <v>14</v>
       </c>
       <c r="B64" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="C64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D64" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E64" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="C64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D64" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E64" t="s" s="2">
-        <v>132</v>
-      </c>
       <c r="F64" t="s" s="2">
         <v>14</v>
       </c>
@@ -3081,7 +3081,7 @@
         <v>14</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -3098,7 +3098,7 @@
         <v>14</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C65" t="s" s="2">
         <v>14</v>
@@ -3107,7 +3107,7 @@
         <v>14</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>14</v>
@@ -3116,7 +3116,7 @@
         <v>14</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>18</v>
@@ -3133,7 +3133,7 @@
         <v>14</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C66" t="s" s="2">
         <v>14</v>
@@ -3142,7 +3142,7 @@
         <v>14</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>14</v>
@@ -3151,7 +3151,7 @@
         <v>14</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -3168,7 +3168,7 @@
         <v>14</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C67" t="s" s="2">
         <v>14</v>
@@ -3177,7 +3177,7 @@
         <v>14</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>14</v>
@@ -3186,7 +3186,7 @@
         <v>14</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -3203,7 +3203,7 @@
         <v>14</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>14</v>
@@ -3212,7 +3212,7 @@
         <v>14</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>14</v>
@@ -3221,7 +3221,7 @@
         <v>14</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -3235,13 +3235,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>14</v>
+        <v>135</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>14</v>
@@ -3253,10 +3253,10 @@
         <v>14</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>85</v>
+        <v>138</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -3270,19 +3270,19 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D70" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>14</v>
@@ -3291,7 +3291,7 @@
         <v>16</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -3311,7 +3311,7 @@
         <v>143</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>14</v>
@@ -3326,7 +3326,7 @@
         <v>16</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>38</v>
+        <v>138</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>18</v>
@@ -3346,7 +3346,7 @@
         <v>146</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s" s="2">
         <v>14</v>
@@ -3361,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>141</v>
+        <v>17</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>18</v>
@@ -3375,28 +3375,28 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D73" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="B73" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="C73" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D73" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E73" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="F73" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s" s="2">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>18</v>
@@ -3413,17 +3413,17 @@
         <v>14</v>
       </c>
       <c r="B74" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D74" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E74" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="C74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D74" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E74" t="s" s="2">
-        <v>151</v>
-      </c>
       <c r="F74" t="s" s="2">
         <v>14</v>
       </c>
@@ -3431,7 +3431,7 @@
         <v>14</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -3448,7 +3448,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C75" t="s" s="2">
         <v>14</v>
@@ -3457,7 +3457,7 @@
         <v>14</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F75" t="s" s="2">
         <v>14</v>
@@ -3466,7 +3466,7 @@
         <v>14</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I75" t="s" s="2">
         <v>18</v>
@@ -3480,10 +3480,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>14</v>
@@ -3498,10 +3498,10 @@
         <v>14</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H76" t="s" s="2">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="I76" t="s" s="2">
         <v>18</v>
@@ -3521,7 +3521,7 @@
         <v>155</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D77" t="s" s="2">
         <v>14</v>
@@ -3536,7 +3536,7 @@
         <v>16</v>
       </c>
       <c r="H77" t="s" s="2">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I77" t="s" s="2">
         <v>18</v>
@@ -3556,7 +3556,7 @@
         <v>158</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D78" t="s" s="2">
         <v>14</v>
@@ -3571,7 +3571,7 @@
         <v>16</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
         <v>18</v>
@@ -3591,7 +3591,7 @@
         <v>161</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>14</v>
@@ -3606,7 +3606,7 @@
         <v>16</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>38</v>
+        <v>163</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>18</v>
@@ -3620,19 +3620,19 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D80" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>14</v>
@@ -3641,7 +3641,7 @@
         <v>16</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>166</v>
+        <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
         <v>18</v>
@@ -3661,7 +3661,7 @@
         <v>168</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D81" t="s" s="2">
         <v>14</v>
@@ -3696,7 +3696,7 @@
         <v>171</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D82" t="s" s="2">
         <v>14</v>
@@ -3711,7 +3711,7 @@
         <v>16</v>
       </c>
       <c r="H82" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I82" t="s" s="2">
         <v>18</v>
@@ -3731,7 +3731,7 @@
         <v>174</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>14</v>
@@ -3746,7 +3746,7 @@
         <v>16</v>
       </c>
       <c r="H83" t="s" s="2">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I83" t="s" s="2">
         <v>18</v>
@@ -3766,7 +3766,7 @@
         <v>177</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s" s="2">
         <v>14</v>
@@ -3801,7 +3801,7 @@
         <v>180</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D85" t="s" s="2">
         <v>14</v>
@@ -3816,7 +3816,7 @@
         <v>16</v>
       </c>
       <c r="H85" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>18</v>
@@ -3836,7 +3836,7 @@
         <v>183</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D86" t="s" s="2">
         <v>14</v>
@@ -3865,28 +3865,28 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B87" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D87" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E87" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="B87" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="C87" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="D87" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E87" t="s" s="2">
-        <v>187</v>
-      </c>
       <c r="F87" t="s" s="2">
         <v>14</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s" s="2">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="I87" t="s" s="2">
         <v>18</v>
@@ -3903,17 +3903,17 @@
         <v>14</v>
       </c>
       <c r="B88" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="C88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D88" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E88" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="C88" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="D88" t="s" s="2">
-        <v>14</v>
-      </c>
-      <c r="E88" t="s" s="2">
-        <v>188</v>
-      </c>
       <c r="F88" t="s" s="2">
         <v>14</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>14</v>
       </c>
       <c r="H88" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I88" t="s" s="2">
         <v>18</v>
@@ -3938,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s" s="2">
         <v>14</v>
@@ -3947,7 +3947,7 @@
         <v>14</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F89" t="s" s="2">
         <v>14</v>
@@ -3956,7 +3956,7 @@
         <v>14</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I89" t="s" s="2">
         <v>18</v>
@@ -3970,13 +3970,13 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>14</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s" s="2">
         <v>14</v>
@@ -3988,10 +3988,10 @@
         <v>14</v>
       </c>
       <c r="G90" t="s" s="2">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>18</v>
@@ -4011,7 +4011,7 @@
         <v>192</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D91" t="s" s="2">
         <v>14</v>
@@ -4046,22 +4046,22 @@
         <v>195</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D92" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E92" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F92" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="F92" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G92" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H92" t="s" s="2">
-        <v>17</v>
+        <v>117</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -4081,22 +4081,22 @@
         <v>198</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>14</v>
+        <v>199</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>199</v>
+        <v>14</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>16</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>18</v>
@@ -4116,7 +4116,7 @@
         <v>201</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s" s="2">
         <v>14</v>
@@ -4151,7 +4151,7 @@
         <v>204</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D95" t="s" s="2">
         <v>14</v>
@@ -4166,7 +4166,7 @@
         <v>16</v>
       </c>
       <c r="H95" t="s" s="2">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -4186,19 +4186,19 @@
         <v>207</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E96" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F96" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="F96" t="s" s="2">
-        <v>14</v>
-      </c>
       <c r="G96" t="s" s="2">
-        <v>16</v>
+        <v>209</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>17</v>
@@ -4215,25 +4215,25 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D97" t="s" s="2">
         <v>14</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>211</v>
+        <v>14</v>
       </c>
       <c r="G97" t="s" s="2">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H97" t="s" s="2">
         <v>17</v>
@@ -4256,7 +4256,7 @@
         <v>214</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D98" t="s" s="2">
         <v>14</v>
@@ -4271,7 +4271,7 @@
         <v>16</v>
       </c>
       <c r="H98" t="s" s="2">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>18</v>
@@ -4291,7 +4291,7 @@
         <v>217</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D99" t="s" s="2">
         <v>14</v>
@@ -4326,7 +4326,7 @@
         <v>220</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D100" t="s" s="2">
         <v>14</v>
@@ -4361,7 +4361,7 @@
         <v>223</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>14</v>
@@ -4396,7 +4396,7 @@
         <v>226</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D102" t="s" s="2">
         <v>14</v>
@@ -4431,7 +4431,7 @@
         <v>229</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D103" t="s" s="2">
         <v>14</v>
@@ -4481,7 +4481,7 @@
         <v>14</v>
       </c>
       <c r="H104" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I104" t="s" s="2">
         <v>18</v>
@@ -4516,7 +4516,7 @@
         <v>14</v>
       </c>
       <c r="H105" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I105" t="s" s="2">
         <v>18</v>
@@ -4551,7 +4551,7 @@
         <v>14</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>18</v>
